--- a/DataRaw/Metastocalculate.xlsx
+++ b/DataRaw/Metastocalculate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vmueller/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lfrahm/IDrive-Sync/sync_Documents/PhD/Code/ALE/pyALE/DataRaw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D49D02-8EFA-F045-A419-144B1079F9E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394B146-A0DF-AA46-9F0C-05984176E0F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="460" windowWidth="14860" windowHeight="17560" xr2:uid="{0A56B9C8-76CD-1B4B-B14E-A677B9DAC1B9}"/>
+    <workbookView xWindow="4420" yWindow="500" windowWidth="14860" windowHeight="17560" xr2:uid="{0A56B9C8-76CD-1B4B-B14E-A677B9DAC1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
